--- a/biology/Zoologie/Cassique_roussâtre/Cassique_roussâtre.xlsx
+++ b/biology/Zoologie/Cassique_roussâtre/Cassique_roussâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_rouss%C3%A2tre</t>
+          <t>Cassique_roussâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psarocolius angustifrons
 Le Cassique roussâtre (Psarocolius angustifrons) est une espèce d'oiseau de la famille des ictéridés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_rouss%C3%A2tre</t>
+          <t>Cassique_roussâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sept sous-espèces de Cassique roussâtre sont reconnues :
 P.a. alfredi (Des Murs, 1856) ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_rouss%C3%A2tre</t>
+          <t>Cassique_roussâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce angustifrons se retrouve dans l’extrême ouest du Brésil, le centre de la Bolivie, l’ouest du Pérou et de l’Équateur et le sud de la Colombie.  Les six autres sous-espèces occupent des aires très localisées dans les Andes en Équateur, en Colombie et au Venezuela.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_rouss%C3%A2tre</t>
+          <t>Cassique_roussâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique roussâtre recherche les lisières et les clairières forestières, les rives des cours d’eau et des lacs, les varzeas et les forêts inondées.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_rouss%C3%A2tre</t>
+          <t>Cassique_roussâtre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche en colonie, généralement d’une dizaine de nids ou moins.  Les nids peuvent être dispersés dans plus d’un arbre.  Les arbres de nidification sont parfois partagées avec le Cassique cul-jaune.  Les nids sont régulièrement parasités par le Vacher géant.  Le Cassique roussâtre est polygyne.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cassique_rouss%C3%A2tre</t>
+          <t>Cassique_roussâtre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique roussâtre cherche sa nourriture dans la canopée en petit groupe, parfois en compagnie de Cassiques cul-jaune, d’autres membres du genre Psarocolius et de Geais violacé.
 </t>
